--- a/Testdata/EmailData.xlsx
+++ b/Testdata/EmailData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuri\OneDrive\Desktop\Mani\Project\BB_Automation\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b933e8baf6cc6978/Desktop/Mani/Project/BB_Automation/Testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92377847-DBDD-4D5D-ABB1-87AF7AF57C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FDA873EF-DEC4-4579-87EE-6B11C1118791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B9033D6-4002-4BC3-87D8-04CBC89D26AF}"/>
   <bookViews>
-    <workbookView xWindow="5208" yWindow="2724" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="3180" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>Preferred Method of contact</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email No 1</t>
+  </si>
+  <si>
+    <t>Fax Number</t>
+  </si>
+  <si>
+    <t>Email Adress</t>
+  </si>
+  <si>
+    <t>Email No 2</t>
+  </si>
+  <si>
+    <t>Email No 3</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,20 +387,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>